--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T09:08:14+00:00</t>
+    <t>2021-11-26T09:17:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T09:17:10+00:00</t>
+    <t>2021-11-26T09:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-26T09:29:27+00:00</t>
+    <t>2021-12-13T10:16:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T10:16:17+00:00</t>
+    <t>2021-12-13T10:30:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-13T10:30:17+00:00</t>
+    <t>2021-12-17T08:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-17T08:35:15+00:00</t>
+    <t>2022-01-13T14:53:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T14:53:07+00:00</t>
+    <t>2022-01-13T16:04:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-13T16:04:24+00:00</t>
+    <t>2022-01-14T11:18:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T11:18:45+00:00</t>
+    <t>2022-02-10T12:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-10T12:53:49+00:00</t>
+    <t>2022-02-11T08:25:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T08:25:18+00:00</t>
+    <t>2022-03-11T08:54:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T08:54:44+00:00</t>
+    <t>2022-03-11T08:56:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T08:56:50+00:00</t>
+    <t>2022-03-11T09:06:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="78">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-11T09:06:46+00:00</t>
+    <t>2023-02-04T16:51:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -124,6 +124,9 @@
   </si>
   <si>
     <t>specialization</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -558,7 +561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AK2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -567,42 +570,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="22.55078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.5546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.5546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="31.03125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="8.95703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="11.55859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -714,105 +717,111 @@
       <c r="AJ1" t="s" s="1">
         <v>72</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>73</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:51:07+00:00</t>
+    <t>2023-02-04T16:51:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:51:39+00:00</t>
+    <t>2023-02-04T16:53:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-04T16:53:50+00:00</t>
+    <t>2023-02-19T14:45:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-MedicationOrderIHEMM.xlsx
+++ b/StructureDefinition-MedicationOrderIHEMM.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-19T14:45:07+00:00</t>
+    <t>2023-02-20T20:06:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
